--- a/data/trans_orig/Q45A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q45A_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>32423</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22750</v>
+        <v>22821</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45716</v>
+        <v>45508</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03145335960540589</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02206954685515791</v>
+        <v>0.02213847984248436</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04434932245459942</v>
+        <v>0.04414684298239442</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -764,19 +764,19 @@
         <v>22975</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14849</v>
+        <v>15265</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34512</v>
+        <v>34651</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01747033171412081</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01129120209445927</v>
+        <v>0.01160771485481265</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02624261826725302</v>
+        <v>0.02634838946047446</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -785,19 +785,19 @@
         <v>55398</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41166</v>
+        <v>42734</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70968</v>
+        <v>73174</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02361460014152298</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01754778968056265</v>
+        <v>0.01821598040290981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03025159819049354</v>
+        <v>0.03119160015616164</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>93397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74932</v>
+        <v>77142</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>113827</v>
+        <v>112940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09060366013542648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07269134493780308</v>
+        <v>0.07483496427519412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1104225141719679</v>
+        <v>0.1095628362667883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -835,19 +835,19 @@
         <v>54783</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41967</v>
+        <v>40530</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71187</v>
+        <v>70044</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04165629156772686</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03191126736364725</v>
+        <v>0.03081886485788029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05412993842712793</v>
+        <v>0.05326090447453592</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>145</v>
@@ -856,19 +856,19 @@
         <v>148179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>125226</v>
+        <v>127402</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173024</v>
+        <v>171292</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06316420627927326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05337988092923025</v>
+        <v>0.05430754278247405</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07375458133185456</v>
+        <v>0.07301657045120434</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>390825</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>359724</v>
+        <v>361154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>420019</v>
+        <v>422748</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3791371565879373</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3489660702263768</v>
+        <v>0.3503538154759999</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4074587346444681</v>
+        <v>0.4101055365962463</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>519</v>
@@ -906,19 +906,19 @@
         <v>524128</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>487293</v>
+        <v>488346</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>560862</v>
+        <v>559392</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3985422810509849</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3705333225515532</v>
+        <v>0.3713337727043815</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4264741203599796</v>
+        <v>0.4253563830473612</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>909</v>
@@ -927,19 +927,19 @@
         <v>914953</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>868070</v>
+        <v>866139</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>959000</v>
+        <v>958649</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3900154945427192</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3700308923027394</v>
+        <v>0.3692077450582372</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4087914476141509</v>
+        <v>0.4086418476064856</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>234182</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209658</v>
+        <v>207154</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>260355</v>
+        <v>260270</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2271783109052025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2033877673414375</v>
+        <v>0.2009588626325161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2525693379893384</v>
+        <v>0.2524866073497743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>301</v>
@@ -977,19 +977,19 @@
         <v>306664</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>275220</v>
+        <v>277336</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>338370</v>
+        <v>336876</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2331847462322777</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2092748534603004</v>
+        <v>0.2108837608722149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2572935589462553</v>
+        <v>0.2561573086592787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>542</v>
@@ -998,19 +998,19 @@
         <v>540846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>498748</v>
+        <v>500748</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>581166</v>
+        <v>582632</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.230545464438069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2126006901522842</v>
+        <v>0.213452956931769</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2477326812606773</v>
+        <v>0.2483576285804222</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>280001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>252133</v>
+        <v>251490</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>307416</v>
+        <v>308285</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2716275127660279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2445928910114353</v>
+        <v>0.2439694592618703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2982226137138916</v>
+        <v>0.2990658868918357</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>394</v>
@@ -1048,19 +1048,19 @@
         <v>406562</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>372909</v>
+        <v>373717</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>439632</v>
+        <v>441183</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3091463494348897</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2835563434185021</v>
+        <v>0.2841710981504116</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3342919340401387</v>
+        <v>0.3354717252023346</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -1069,19 +1069,19 @@
         <v>686563</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>642019</v>
+        <v>643383</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730559</v>
+        <v>731835</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2926602345984156</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.273672232246731</v>
+        <v>0.2742538848630513</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3114141564602588</v>
+        <v>0.3119579520519177</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>29711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19959</v>
+        <v>19808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42480</v>
+        <v>41622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01754523097188965</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01178620460211315</v>
+        <v>0.01169713376095865</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02508527094049495</v>
+        <v>0.02457870340039181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1194,19 +1194,19 @@
         <v>24014</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16148</v>
+        <v>15494</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36022</v>
+        <v>34377</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01512508772465364</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01017109658375779</v>
+        <v>0.00975864110567305</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02268877438726542</v>
+        <v>0.02165245453927645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -1215,19 +1215,19 @@
         <v>53725</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40100</v>
+        <v>40848</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69429</v>
+        <v>70923</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01637415631134102</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01222153978770529</v>
+        <v>0.01244960794724248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02116036682040514</v>
+        <v>0.02161580135974901</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>190894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>163802</v>
+        <v>165309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>217301</v>
+        <v>218655</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1127273067380193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09672885868009115</v>
+        <v>0.097618600131557</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1283215306119657</v>
+        <v>0.1291209327758853</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>159</v>
@@ -1265,19 +1265,19 @@
         <v>159374</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>135034</v>
+        <v>136283</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>185202</v>
+        <v>185400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1003823791688903</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08505166804159479</v>
+        <v>0.08583824139088458</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1166502157547904</v>
+        <v>0.116774688521332</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>345</v>
@@ -1286,19 +1286,19 @@
         <v>350268</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>315316</v>
+        <v>314299</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>386622</v>
+        <v>387375</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1067537628665869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09610109084332132</v>
+        <v>0.0957912530102645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1178336386974211</v>
+        <v>0.1180631661805067</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>901307</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>862299</v>
+        <v>863747</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>942538</v>
+        <v>948132</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5322426551576787</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5092077812173375</v>
+        <v>0.5100626758473318</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5565907623770756</v>
+        <v>0.5598938365795686</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>839</v>
@@ -1336,19 +1336,19 @@
         <v>850084</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>812612</v>
+        <v>811766</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>889201</v>
+        <v>889554</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5354278645173556</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5118255238764096</v>
+        <v>0.5112931372782618</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5600655546033023</v>
+        <v>0.5602881856785492</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1721</v>
@@ -1357,19 +1357,19 @@
         <v>1751391</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1694737</v>
+        <v>1692270</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1807385</v>
+        <v>1807437</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5337839349864326</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5165171727347708</v>
+        <v>0.515765218392489</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.550849638615162</v>
+        <v>0.5508654515782992</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>341930</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>309853</v>
+        <v>310347</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>375170</v>
+        <v>375227</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2019175111237075</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1829757144000741</v>
+        <v>0.1832669535709382</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2215464024260829</v>
+        <v>0.2215802962168557</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>325</v>
@@ -1407,19 +1407,19 @@
         <v>331875</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>299212</v>
+        <v>301718</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>365992</v>
+        <v>364173</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2090325107855445</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1884597205716515</v>
+        <v>0.1900380773964558</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2305209292548685</v>
+        <v>0.2293756290113092</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>666</v>
@@ -1428,19 +1428,19 @@
         <v>673805</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>629705</v>
+        <v>626026</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>716171</v>
+        <v>717898</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2053603634520998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1919198364915773</v>
+        <v>0.1907984175991292</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2182726825096418</v>
+        <v>0.2187990038649958</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>229571</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>203922</v>
+        <v>201755</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>257774</v>
+        <v>259172</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.135567296008705</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1204207817433072</v>
+        <v>0.119141051114354</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1522213793588242</v>
+        <v>0.1530470200372598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>207</v>
@@ -1478,19 +1478,19 @@
         <v>222325</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>191042</v>
+        <v>195703</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>250806</v>
+        <v>253726</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.140032157803556</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1203284466094236</v>
+        <v>0.1232637326812579</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1579708587831389</v>
+        <v>0.1598101290413655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>420</v>
@@ -1499,19 +1499,19 @@
         <v>451897</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>408136</v>
+        <v>412473</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>491061</v>
+        <v>494032</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1377277823835397</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1243904682957981</v>
+        <v>0.1257122698835299</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1496641669282847</v>
+        <v>0.1505697947473936</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>6118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2343</v>
+        <v>2564</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13545</v>
+        <v>13688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01109512788491632</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004249946860001193</v>
+        <v>0.004649060575279899</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0245644295160579</v>
+        <v>0.02482338810714639</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1624,19 +1624,19 @@
         <v>8665</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3855</v>
+        <v>3926</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16344</v>
+        <v>16922</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01818899305477656</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008092542764813108</v>
+        <v>0.008240052103345569</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03430541199361369</v>
+        <v>0.03551943513463186</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1645,19 +1645,19 @@
         <v>14783</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8536</v>
+        <v>8033</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24446</v>
+        <v>24142</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01438325355096147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008305184472893547</v>
+        <v>0.007815925567878622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02378398928257666</v>
+        <v>0.02348870572516379</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>58715</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44815</v>
+        <v>44801</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74764</v>
+        <v>76650</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1064823561496374</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08127330913839434</v>
+        <v>0.08124872410638875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1355867560832265</v>
+        <v>0.139007114926314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -1695,19 +1695,19 @@
         <v>54190</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41253</v>
+        <v>41057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68299</v>
+        <v>68759</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1137462737782435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08659143186943127</v>
+        <v>0.08617890981258262</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1433616447200546</v>
+        <v>0.1443275712256129</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>110</v>
@@ -1716,19 +1716,19 @@
         <v>112905</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>91422</v>
+        <v>94109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133060</v>
+        <v>135357</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1098493039867822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08894775869202108</v>
+        <v>0.0915613715438026</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.129458586668402</v>
+        <v>0.1316928154217253</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>270690</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>245497</v>
+        <v>246357</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>294391</v>
+        <v>292443</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.490907172447493</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4452175714619178</v>
+        <v>0.446777164010319</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5338895983989944</v>
+        <v>0.5303562375515838</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>247</v>
@@ -1766,19 +1766,19 @@
         <v>259089</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>239705</v>
+        <v>237161</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>282116</v>
+        <v>281138</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.543833093631872</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5031471618275843</v>
+        <v>0.497805628162907</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5921671726818484</v>
+        <v>0.5901145299650559</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>510</v>
@@ -1787,19 +1787,19 @@
         <v>529779</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>497680</v>
+        <v>499111</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>561091</v>
+        <v>561529</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5154392259442002</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4842092109205992</v>
+        <v>0.4856012319362534</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5459037945581209</v>
+        <v>0.5463301179694595</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>129360</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>108966</v>
+        <v>106837</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150709</v>
+        <v>149829</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2345994334755109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1976145600111065</v>
+        <v>0.193752649098754</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2733160737239617</v>
+        <v>0.2717214151674694</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -1837,19 +1837,19 @@
         <v>84575</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69178</v>
+        <v>69567</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102689</v>
+        <v>103157</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1775252944309643</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1452064058772388</v>
+        <v>0.146021806876755</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2155476723033612</v>
+        <v>0.2165297921126819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>205</v>
@@ -1858,19 +1858,19 @@
         <v>213935</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189063</v>
+        <v>188567</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>241460</v>
+        <v>237986</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.208144611320567</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1839451598100451</v>
+        <v>0.1834633662215998</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2349241432271127</v>
+        <v>0.2315443267395225</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>86525</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68284</v>
+        <v>69444</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>107425</v>
+        <v>106017</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1569159100424425</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1238359807278928</v>
+        <v>0.1259389124015507</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1948189267785583</v>
+        <v>0.1922652267876115</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -1908,19 +1908,19 @@
         <v>69893</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54957</v>
+        <v>54464</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87033</v>
+        <v>87964</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1467063451041437</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1153567078663844</v>
+        <v>0.1143205395044382</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1826835182315061</v>
+        <v>0.1846379933997837</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>140</v>
@@ -1929,19 +1929,19 @@
         <v>156417</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>133963</v>
+        <v>133987</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>183747</v>
+        <v>182983</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1521836051974892</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1303367975005019</v>
+        <v>0.1303604589509183</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1787739551154808</v>
+        <v>0.1780302549709029</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>68252</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51165</v>
+        <v>54285</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86748</v>
+        <v>86723</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02083625562604561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01561969347838599</v>
+        <v>0.0165724433288598</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02648265359034903</v>
+        <v>0.0264751649147095</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -2054,19 +2054,19 @@
         <v>55655</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41387</v>
+        <v>41835</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71511</v>
+        <v>73227</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01646976803847081</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01224761038057971</v>
+        <v>0.01238013299719022</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02116223120500961</v>
+        <v>0.02166998553985662</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -2075,19 +2075,19 @@
         <v>123907</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>103096</v>
+        <v>101922</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147619</v>
+        <v>147776</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01861904041890844</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01549187633094301</v>
+        <v>0.01531544942740811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02218212445621518</v>
+        <v>0.02220577626867919</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>343006</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>308875</v>
+        <v>310437</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>378197</v>
+        <v>382413</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1047138780329942</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0942943436190382</v>
+        <v>0.09477108067896767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1154572269759525</v>
+        <v>0.1167443143651634</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>267</v>
@@ -2125,19 +2125,19 @@
         <v>268347</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>240856</v>
+        <v>238221</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>303314</v>
+        <v>300605</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07941151010374871</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07127604958603057</v>
+        <v>0.07049619729798275</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08975919808383821</v>
+        <v>0.08895759082850534</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>600</v>
@@ -2146,19 +2146,19 @@
         <v>611353</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>559598</v>
+        <v>564099</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>656593</v>
+        <v>659592</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09186584083510031</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08408876892908972</v>
+        <v>0.08476523461822177</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09866390389203183</v>
+        <v>0.09911460997097687</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>1562822</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1505965</v>
+        <v>1506277</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1621123</v>
+        <v>1617221</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4771030237041693</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4597455718300453</v>
+        <v>0.4598408276021684</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4949015845993917</v>
+        <v>0.4937102662122875</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1605</v>
@@ -2196,19 +2196,19 @@
         <v>1633301</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1574544</v>
+        <v>1578974</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1689443</v>
+        <v>1688514</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4833398703239353</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4659520780004397</v>
+        <v>0.4672629907903262</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4999538460642532</v>
+        <v>0.4996789490196568</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3140</v>
@@ -2217,19 +2217,19 @@
         <v>3196122</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3122318</v>
+        <v>3115716</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3284691</v>
+        <v>3278737</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4802699698806058</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4691796158677679</v>
+        <v>0.4681876664139461</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4935788778568755</v>
+        <v>0.4926841582978392</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>705471</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>663211</v>
+        <v>660314</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>752960</v>
+        <v>753841</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2153684656847413</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2024670757929468</v>
+        <v>0.2015827191048645</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2298660091396456</v>
+        <v>0.2301348053192921</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>707</v>
@@ -2267,19 +2267,19 @@
         <v>723115</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>678661</v>
+        <v>674854</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>773408</v>
+        <v>771873</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2139900506861264</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2008349200699437</v>
+        <v>0.1997082967517219</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2288732851008742</v>
+        <v>0.2284189745840967</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1413</v>
@@ -2288,19 +2288,19 @@
         <v>1428586</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1366411</v>
+        <v>1365883</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1496732</v>
+        <v>1494592</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2146685340725751</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2053256702090266</v>
+        <v>0.2052463889295901</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.224908587390006</v>
+        <v>0.2245869762394344</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>596097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>554828</v>
+        <v>549590</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>639851</v>
+        <v>644745</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1819783769520496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1693794804747126</v>
+        <v>0.1677805306716331</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1953357703297835</v>
+        <v>0.1968297349733381</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>664</v>
@@ -2338,19 +2338,19 @@
         <v>698780</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>648857</v>
+        <v>660169</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>745942</v>
+        <v>751771</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2067888008477187</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1920151334466805</v>
+        <v>0.1953627522576032</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2207453008485209</v>
+        <v>0.2224702218472289</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1238</v>
@@ -2359,19 +2359,19 @@
         <v>1294877</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1231618</v>
+        <v>1231175</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1361041</v>
+        <v>1360597</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1945766147928104</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1850708887747518</v>
+        <v>0.1850043365327224</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2045187637251759</v>
+        <v>0.2044521458939658</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>11663</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6066</v>
+        <v>6526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19350</v>
+        <v>19739</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01197856520394755</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006229541946876631</v>
+        <v>0.006702226154747234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01987295493153752</v>
+        <v>0.02027304328634554</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2723,19 +2723,19 @@
         <v>11396</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6044</v>
+        <v>5233</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20041</v>
+        <v>19965</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008525813124713516</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004521873138898585</v>
+        <v>0.003915167169159677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01499396964064544</v>
+        <v>0.01493700787188573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -2744,19 +2744,19 @@
         <v>23059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14182</v>
+        <v>15030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33569</v>
+        <v>34019</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009980983460372262</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006138740002794082</v>
+        <v>0.006505790069846198</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01453013192897806</v>
+        <v>0.01472518889804036</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>62127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48116</v>
+        <v>47111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81703</v>
+        <v>79467</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06380625261465521</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04941632052908469</v>
+        <v>0.04838463892486196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08391207478624815</v>
+        <v>0.08161531975303356</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -2794,19 +2794,19 @@
         <v>57259</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44949</v>
+        <v>41848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74990</v>
+        <v>73561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04283902134274395</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03362892763210634</v>
+        <v>0.03130869049999814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05610422318946151</v>
+        <v>0.05503496604517915</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>113</v>
@@ -2815,19 +2815,19 @@
         <v>119386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96512</v>
+        <v>101061</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140230</v>
+        <v>145762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05167570937235489</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0417747439203886</v>
+        <v>0.04374397661924261</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06069795886400579</v>
+        <v>0.06309236284710813</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>248473</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>222879</v>
+        <v>221322</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>276817</v>
+        <v>279591</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2551902540973192</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2289038707545978</v>
+        <v>0.2273050363899043</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2842999255497743</v>
+        <v>0.2871495736193616</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>281</v>
@@ -2865,19 +2865,19 @@
         <v>305508</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>273949</v>
+        <v>273277</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>338549</v>
+        <v>339281</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2285684306254675</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2049572104779198</v>
+        <v>0.2044547064307097</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2532888598014629</v>
+        <v>0.2538362304671083</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>516</v>
@@ -2886,19 +2886,19 @@
         <v>553981</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>511869</v>
+        <v>518919</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>596198</v>
+        <v>599973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.239788259593314</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2215605359552435</v>
+        <v>0.2246120313654311</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2580616787981082</v>
+        <v>0.2596958145855638</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>224412</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>198181</v>
+        <v>196983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>251564</v>
+        <v>251660</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2304783434298043</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2035381801882841</v>
+        <v>0.2023079825153749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2583649578763904</v>
+        <v>0.2584633541271715</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>325</v>
@@ -2936,19 +2936,19 @@
         <v>349449</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>318578</v>
+        <v>317288</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>384126</v>
+        <v>383239</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2614438336653291</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2383468507412929</v>
+        <v>0.237381830441313</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2873875734932021</v>
+        <v>0.2867238171927698</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>532</v>
@@ -2957,19 +2957,19 @@
         <v>573861</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>533849</v>
+        <v>533296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>618570</v>
+        <v>617067</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2483933563110841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.231074510030017</v>
+        <v>0.2308350066290107</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2677456141787126</v>
+        <v>0.2670950724730468</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>427003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>394474</v>
+        <v>394290</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>458518</v>
+        <v>460184</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4385465846542738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4051385549643783</v>
+        <v>0.4049489909490109</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4709137601258376</v>
+        <v>0.472624698495767</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>575</v>
@@ -3007,19 +3007,19 @@
         <v>613002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>576784</v>
+        <v>580985</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>649441</v>
+        <v>652264</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4586229012417459</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4315262807321359</v>
+        <v>0.4346692773893212</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4858848748238113</v>
+        <v>0.4879974164220547</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>969</v>
@@ -3028,19 +3028,19 @@
         <v>1040005</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>989248</v>
+        <v>983982</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1089857</v>
+        <v>1084163</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4501616912628748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4281918171492197</v>
+        <v>0.4259123773374632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4717402373889023</v>
+        <v>0.4692755342590421</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>45006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32752</v>
+        <v>32417</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63528</v>
+        <v>60896</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02293889905679066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01669305674547846</v>
+        <v>0.01652259506754902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0323793366926661</v>
+        <v>0.03103804524241037</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3153,19 +3153,19 @@
         <v>30357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20291</v>
+        <v>20690</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42897</v>
+        <v>42743</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01731163797957279</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01157160511744845</v>
+        <v>0.01179870420951553</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02446288611156964</v>
+        <v>0.02437527630102303</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -3174,19 +3174,19 @@
         <v>75363</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59525</v>
+        <v>59151</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>95292</v>
+        <v>97404</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02028312061965182</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01602053767105729</v>
+        <v>0.01591993809614834</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02564691824037307</v>
+        <v>0.02621536815593772</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>246953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>218611</v>
+        <v>217662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>276888</v>
+        <v>278255</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1258682939821289</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1114227488221901</v>
+        <v>0.1109390877474244</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1411259398798206</v>
+        <v>0.141822630217357</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>189</v>
@@ -3224,19 +3224,19 @@
         <v>202576</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>177211</v>
+        <v>175511</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>230948</v>
+        <v>232216</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1155241352308997</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1010587922792895</v>
+        <v>0.1000892752352382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1317039310690999</v>
+        <v>0.1324269509708541</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>423</v>
@@ -3245,19 +3245,19 @@
         <v>449529</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>410279</v>
+        <v>409951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>491198</v>
+        <v>492520</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1209863819142713</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1104226255621165</v>
+        <v>0.1103343092538659</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1322011055295403</v>
+        <v>0.1325568575227332</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>817405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>771959</v>
+        <v>771900</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>865143</v>
+        <v>859520</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4166196289039262</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3934566504024025</v>
+        <v>0.3934262908351668</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4409512490985948</v>
+        <v>0.4380851938227778</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>673</v>
@@ -3295,19 +3295,19 @@
         <v>714349</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>673549</v>
+        <v>671774</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>758453</v>
+        <v>755244</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4073749821755054</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.384107674248491</v>
+        <v>0.3830959596992501</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4325266340987399</v>
+        <v>0.4306966506206018</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1456</v>
@@ -3316,19 +3316,19 @@
         <v>1531754</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1476621</v>
+        <v>1475488</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1596814</v>
+        <v>1593880</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4122566300838245</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3974181551595238</v>
+        <v>0.3971133479611913</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4297670688720279</v>
+        <v>0.4289774239838624</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>395383</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>356294</v>
+        <v>361589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>431102</v>
+        <v>434798</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2015212516321708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1815978112899427</v>
+        <v>0.184296892778966</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2197264191616016</v>
+        <v>0.2216102356278824</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>319</v>
@@ -3366,19 +3366,19 @@
         <v>345408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>314562</v>
+        <v>313343</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>380346</v>
+        <v>378152</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1969773196605143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.179387017992065</v>
+        <v>0.1786914684815263</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2169016475251264</v>
+        <v>0.2156503785947441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>689</v>
@@ -3387,19 +3387,19 @@
         <v>740791</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>685478</v>
+        <v>694493</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>792353</v>
+        <v>791438</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1993767489363553</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1844898526253413</v>
+        <v>0.1869161312715213</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2132541077191315</v>
+        <v>0.2130079009946679</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>457246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417816</v>
+        <v>419663</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>494777</v>
+        <v>496144</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2330519264249834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2129547491334888</v>
+        <v>0.2138964671620663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2521805927857815</v>
+        <v>0.2528776748404606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>421</v>
@@ -3437,19 +3437,19 @@
         <v>460851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>424801</v>
+        <v>422492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>497427</v>
+        <v>501328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2628119249535078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2422533513988963</v>
+        <v>0.2409366592168834</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2836699865769199</v>
+        <v>0.2858947334856621</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>847</v>
@@ -3458,19 +3458,19 @@
         <v>918098</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>868682</v>
+        <v>867398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>979483</v>
+        <v>974060</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2470971184458971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2337972411856613</v>
+        <v>0.2334518396151373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2636184942545564</v>
+        <v>0.2621586831482131</v>
       </c>
     </row>
     <row r="15">
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9526</v>
+        <v>9064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005193176795747188</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01979742517243636</v>
+        <v>0.01883619560436149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3583,19 +3583,19 @@
         <v>9119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4296</v>
+        <v>4127</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16756</v>
+        <v>16146</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01992574994829571</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009386207171357597</v>
+        <v>0.009018505190221333</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03661433699554233</v>
+        <v>0.03528122591263935</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3604,19 +3604,19 @@
         <v>11618</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6369</v>
+        <v>6105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21665</v>
+        <v>20092</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01237479122018655</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006783529251716324</v>
+        <v>0.006502650167270653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02307630543872076</v>
+        <v>0.02140134467092562</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>46829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34732</v>
+        <v>35090</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61448</v>
+        <v>62485</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0973208561347815</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07218086494119864</v>
+        <v>0.07292472528746689</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1277029882967678</v>
+        <v>0.1298582835440838</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -3654,19 +3654,19 @@
         <v>49539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38225</v>
+        <v>36811</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65439</v>
+        <v>65806</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1082486602098162</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08352528461578092</v>
+        <v>0.0804351983627596</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1429914335897418</v>
+        <v>0.143793637022724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -3675,19 +3675,19 @@
         <v>96369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75749</v>
+        <v>77168</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>117037</v>
+        <v>117333</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1026477786323047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08068493770031657</v>
+        <v>0.08219581716544692</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1246625572978249</v>
+        <v>0.1249787314909807</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>225152</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>202548</v>
+        <v>200681</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>248633</v>
+        <v>247335</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4679143818032394</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4209399368483389</v>
+        <v>0.417058531043727</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5167143980419625</v>
+        <v>0.5140165328362563</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>173</v>
@@ -3725,19 +3725,19 @@
         <v>194070</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>172429</v>
+        <v>171762</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>217953</v>
+        <v>215463</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4240625726015925</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3767739577296534</v>
+        <v>0.3753167995773981</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4762498321701428</v>
+        <v>0.4708081489264163</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>387</v>
@@ -3746,19 +3746,19 @@
         <v>419222</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>390462</v>
+        <v>386937</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>452370</v>
+        <v>450693</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4465381576881851</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4159035957482192</v>
+        <v>0.4121493330798235</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4818462554576562</v>
+        <v>0.4800600454077995</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>102582</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85503</v>
+        <v>83550</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123295</v>
+        <v>123027</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.21318796242554</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1776938683140896</v>
+        <v>0.1736355840010647</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2562334825793031</v>
+        <v>0.2556766839698722</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -3796,19 +3796,19 @@
         <v>104936</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86708</v>
+        <v>87344</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>125108</v>
+        <v>125716</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2292966115753776</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1894661229872646</v>
+        <v>0.1908554776582018</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2733735616073389</v>
+        <v>0.2747010812616392</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>187</v>
@@ -3817,19 +3817,19 @@
         <v>207519</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>180295</v>
+        <v>182589</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>233990</v>
+        <v>237171</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2210403657969562</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1920426366524759</v>
+        <v>0.1944865774543392</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2492361415354756</v>
+        <v>0.2526253099515613</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>104120</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>83462</v>
+        <v>86720</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123848</v>
+        <v>126216</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2163836228406919</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1734533368371872</v>
+        <v>0.1802231969937109</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2573827628718756</v>
+        <v>0.262305106845293</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>86</v>
@@ -3867,19 +3867,19 @@
         <v>99980</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>81682</v>
+        <v>82725</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>120987</v>
+        <v>120554</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.218466405664918</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1784832689157176</v>
+        <v>0.1807633693566402</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2643679502960987</v>
+        <v>0.2634219900135695</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>174</v>
@@ -3888,19 +3888,19 @@
         <v>204100</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>177345</v>
+        <v>176805</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>232645</v>
+        <v>232024</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2173989066623676</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1889002893049441</v>
+        <v>0.1883255807631674</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2478042494381423</v>
+        <v>0.2471427451192203</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>59168</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44857</v>
+        <v>44430</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75111</v>
+        <v>78665</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0173165468152072</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01312822356358241</v>
+        <v>0.01300334259043978</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02198240108231014</v>
+        <v>0.02302253599521814</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -4013,19 +4013,19 @@
         <v>50871</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37657</v>
+        <v>37978</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66274</v>
+        <v>66090</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01433883290159242</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01061406083298829</v>
+        <v>0.0107046027329934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0186802375975726</v>
+        <v>0.01862840815576485</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -4034,19 +4034,19 @@
         <v>110039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89967</v>
+        <v>90344</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>133773</v>
+        <v>134003</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01579969655101653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01291772851922281</v>
+        <v>0.01297175141110714</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0192074084751438</v>
+        <v>0.01924038211423627</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>355908</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>321884</v>
+        <v>320942</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>398599</v>
+        <v>393443</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1041626641640391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09420483451482982</v>
+        <v>0.09392925294876342</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1166568396685913</v>
+        <v>0.1151477073598902</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>288</v>
@@ -4084,19 +4084,19 @@
         <v>309375</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>276974</v>
+        <v>276280</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>343310</v>
+        <v>344424</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08720193543428895</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07806920614024801</v>
+        <v>0.07787375129641426</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09676697630545672</v>
+        <v>0.0970809616367431</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>626</v>
@@ -4105,19 +4105,19 @@
         <v>665283</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>612862</v>
+        <v>616263</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>715719</v>
+        <v>718974</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0955228530200072</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08799613109750899</v>
+        <v>0.08848433524110448</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1027645417677525</v>
+        <v>0.1032319143487938</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>1291030</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1232154</v>
+        <v>1228262</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1351326</v>
+        <v>1347095</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.377841800575691</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3606108292014122</v>
+        <v>0.3594717819104963</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3954887336304764</v>
+        <v>0.3942502918048485</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1127</v>
@@ -4155,19 +4155,19 @@
         <v>1213927</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1156641</v>
+        <v>1155594</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1272178</v>
+        <v>1272202</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3421632220431708</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.326016365573132</v>
+        <v>0.3257211776631052</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3585823551662613</v>
+        <v>0.3585890461667227</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2359</v>
@@ -4176,19 +4176,19 @@
         <v>2504956</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2423008</v>
+        <v>2425432</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2593629</v>
+        <v>2592952</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3596670991627862</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3479007362052911</v>
+        <v>0.3482487859140366</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3723988834137897</v>
+        <v>0.3723017522032693</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>722377</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>672297</v>
+        <v>675601</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>771275</v>
+        <v>776515</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2114159383176957</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1967591409327931</v>
+        <v>0.1977261795252218</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2257268792716658</v>
+        <v>0.2272603152973396</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>742</v>
@@ -4226,19 +4226,19 @@
         <v>799794</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>751109</v>
+        <v>752155</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>853493</v>
+        <v>850918</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.225433711702418</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2117113266655888</v>
+        <v>0.2120059739006983</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2405696228886929</v>
+        <v>0.2398439822766129</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1408</v>
@@ -4247,19 +4247,19 @@
         <v>1522171</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1451441</v>
+        <v>1454224</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1599996</v>
+        <v>1598879</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2185566052450195</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.208401140703615</v>
+        <v>0.2088006546073201</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2297309773032534</v>
+        <v>0.2295705950939544</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>988369</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>934370</v>
+        <v>936833</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1043563</v>
+        <v>1055493</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.289263050127367</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2734594095343618</v>
+        <v>0.2741800936036781</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.30541643415697</v>
+        <v>0.3089080678802483</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1082</v>
@@ -4297,19 +4297,19 @@
         <v>1173833</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1119405</v>
+        <v>1113476</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1233411</v>
+        <v>1230326</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3308622979185298</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3155207487794295</v>
+        <v>0.3138496602684265</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3476550270593484</v>
+        <v>0.3467855986448231</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1990</v>
@@ -4318,19 +4318,19 @@
         <v>2162202</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2084347</v>
+        <v>2078274</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2242926</v>
+        <v>2238050</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3104537460211706</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2992750756107029</v>
+        <v>0.2984031649608471</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3220441723922043</v>
+        <v>0.3213441850767262</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>4127</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1044</v>
+        <v>1058</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9572</v>
+        <v>10409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005485768821263647</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001387542655971593</v>
+        <v>0.001406756636965966</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01272435087855502</v>
+        <v>0.01383761981128977</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4682,19 +4682,19 @@
         <v>9778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4902</v>
+        <v>4366</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18159</v>
+        <v>17776</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009854573047122587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004940216600621174</v>
+        <v>0.004399988231179787</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01830098857820907</v>
+        <v>0.01791529673645521</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4703,19 +4703,19 @@
         <v>13905</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7894</v>
+        <v>7381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22873</v>
+        <v>23042</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007970676164931367</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004525286142950108</v>
+        <v>0.004230957249509829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01311127620867601</v>
+        <v>0.01320825633456413</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>66269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53074</v>
+        <v>51363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83744</v>
+        <v>82554</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08809283449733726</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07055313470975633</v>
+        <v>0.06827802221780654</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1113238141826872</v>
+        <v>0.1097419607613254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -4753,19 +4753,19 @@
         <v>53506</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40871</v>
+        <v>39799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69205</v>
+        <v>69848</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05392389959662796</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04119077605155134</v>
+        <v>0.0401104518348666</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06974554977505676</v>
+        <v>0.07039357151780168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>115</v>
@@ -4774,19 +4774,19 @@
         <v>119774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>100048</v>
+        <v>99229</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>143045</v>
+        <v>142852</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06865808007242744</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05735036210123567</v>
+        <v>0.05688065432759112</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08199769460692047</v>
+        <v>0.08188651529650424</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>202678</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>181587</v>
+        <v>179706</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>225688</v>
+        <v>229306</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2694263713651354</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2413893732520056</v>
+        <v>0.2388882185040221</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3000142787877363</v>
+        <v>0.3048240965888748</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>193</v>
@@ -4824,19 +4824,19 @@
         <v>209268</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>185448</v>
+        <v>185350</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>237401</v>
+        <v>235055</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2109026751456242</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1868972690288547</v>
+        <v>0.1867979514594066</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2392564544619954</v>
+        <v>0.2368915965228043</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>394</v>
@@ -4845,19 +4845,19 @@
         <v>411946</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>378138</v>
+        <v>376531</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>449819</v>
+        <v>448373</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2361390105688639</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2167595056898921</v>
+        <v>0.215838093928336</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2578491846019428</v>
+        <v>0.2570199509455764</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>255622</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>231702</v>
+        <v>231704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>284361</v>
+        <v>280540</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3398057727512382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3080083503924406</v>
+        <v>0.3080107374826049</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3780103994134248</v>
+        <v>0.3729306610710533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>298</v>
@@ -4895,19 +4895,19 @@
         <v>326800</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>295963</v>
+        <v>298729</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>358133</v>
+        <v>356685</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3293531936791581</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2982754127507013</v>
+        <v>0.3010629754896069</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3609316130159839</v>
+        <v>0.3594723686778835</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>561</v>
@@ -4916,19 +4916,19 @@
         <v>582422</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>540869</v>
+        <v>544354</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>621254</v>
+        <v>623317</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3338605096646615</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3100412423107565</v>
+        <v>0.3120391620486201</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3561203761806941</v>
+        <v>0.3573028691660515</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>223563</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>199126</v>
+        <v>200049</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>248207</v>
+        <v>249374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2971892525650255</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2647043832478762</v>
+        <v>0.2659318071410363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3299495664372744</v>
+        <v>0.3315002686082683</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>341</v>
@@ -4966,19 +4966,19 @@
         <v>392896</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363239</v>
+        <v>365396</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>424105</v>
+        <v>426014</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3959656585314671</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3660768980068415</v>
+        <v>0.3682512961954755</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4274182790048201</v>
+        <v>0.4293430921742085</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>567</v>
@@ -4987,19 +4987,19 @@
         <v>616459</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>575759</v>
+        <v>572950</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>655899</v>
+        <v>654361</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3533717235291158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3300413267232772</v>
+        <v>0.3284309176216499</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3759800423784991</v>
+        <v>0.3750983519525156</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>24819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14787</v>
+        <v>16332</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35560</v>
+        <v>36996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01197724602898965</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007136190072465796</v>
+        <v>0.007881702476362188</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01716080881567415</v>
+        <v>0.01785360903566134</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -5112,19 +5112,19 @@
         <v>26423</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17400</v>
+        <v>17522</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39017</v>
+        <v>38246</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01330698152687035</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008763124255677596</v>
+        <v>0.008824551896217437</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01964958674201152</v>
+        <v>0.01926116804758339</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -5133,19 +5133,19 @@
         <v>51242</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37421</v>
+        <v>36446</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66803</v>
+        <v>67095</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01262793479639328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009221899390396233</v>
+        <v>0.008981669091257525</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01646281012275312</v>
+        <v>0.01653477945326214</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>314038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282025</v>
+        <v>279175</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>349597</v>
+        <v>347024</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1515496884130509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1361003568479079</v>
+        <v>0.1347250177879865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1687096285710697</v>
+        <v>0.167468128893882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -5183,19 +5183,19 @@
         <v>252375</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>224208</v>
+        <v>224253</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>282846</v>
+        <v>286744</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1271001343066062</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1129146846341619</v>
+        <v>0.1129371396247725</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1424456989395932</v>
+        <v>0.1444086005660384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>536</v>
@@ -5204,19 +5204,19 @@
         <v>566414</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>522260</v>
+        <v>525047</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>613465</v>
+        <v>612198</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1395856171744878</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1287044412029053</v>
+        <v>0.1293912707559414</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1511807357681637</v>
+        <v>0.1508684920451928</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>787470</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>741259</v>
+        <v>742071</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>832082</v>
+        <v>829905</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3800196554533441</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3577193662830478</v>
+        <v>0.3581111448495367</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.401548938311183</v>
+        <v>0.4004985275868597</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>711</v>
@@ -5254,19 +5254,19 @@
         <v>729626</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>683792</v>
+        <v>684031</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>774790</v>
+        <v>771342</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3674507526854563</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3443680420785728</v>
+        <v>0.3444882223169945</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3901959772958017</v>
+        <v>0.388459734095696</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1445</v>
@@ -5275,19 +5275,19 @@
         <v>1517096</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1454371</v>
+        <v>1459891</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1583275</v>
+        <v>1582359</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3738692263923108</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3584116542369024</v>
+        <v>0.359771999609057</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3901782406254913</v>
+        <v>0.389952476868839</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>598814</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>558232</v>
+        <v>562267</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>639935</v>
+        <v>642016</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.288977696061867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2693935145680635</v>
+        <v>0.2713408497026728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3088218069790102</v>
+        <v>0.3098263091682203</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>599</v>
@@ -5325,19 +5325,19 @@
         <v>626019</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>585892</v>
+        <v>586263</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>669135</v>
+        <v>668352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3152727072347799</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2950643098873109</v>
+        <v>0.2952511899318631</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3369866261573165</v>
+        <v>0.3365919838106172</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1173</v>
@@ -5346,19 +5346,19 @@
         <v>1224833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1162276</v>
+        <v>1162348</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1284175</v>
+        <v>1287816</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3018448177084175</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2864284699081945</v>
+        <v>0.2864460905289929</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3164688836644952</v>
+        <v>0.3173660807129688</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>347040</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>314126</v>
+        <v>312453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>384806</v>
+        <v>382666</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1674757140427483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.151591897283908</v>
+        <v>0.1507844469294832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1857011750705179</v>
+        <v>0.1846680637097078</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>324</v>
@@ -5396,19 +5396,19 @@
         <v>351200</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319854</v>
+        <v>317384</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>388790</v>
+        <v>388210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1768694242462872</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1610833762017514</v>
+        <v>0.1598391621658965</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.195800526180983</v>
+        <v>0.1955083535304962</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>652</v>
@@ -5417,19 +5417,19 @@
         <v>698240</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>653285</v>
+        <v>657322</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752151</v>
+        <v>750368</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1720724039283905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1609940028867939</v>
+        <v>0.1619887522584322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1853581492347628</v>
+        <v>0.1849188333635294</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>5384</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1870</v>
+        <v>1967</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11776</v>
+        <v>12123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009863796344043479</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003426024651410242</v>
+        <v>0.003603723774606348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02157567609047452</v>
+        <v>0.02221141151463386</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -5542,19 +5542,19 @@
         <v>9654</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4323</v>
+        <v>4477</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18411</v>
+        <v>17536</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01758035642322077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007873193607593238</v>
+        <v>0.008152029930514218</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03352660225378937</v>
+        <v>0.03193383695830922</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -5563,19 +5563,19 @@
         <v>15038</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8090</v>
+        <v>8755</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24463</v>
+        <v>25151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01373379634760606</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007388253706786768</v>
+        <v>0.007995992323013901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02234136923876565</v>
+        <v>0.02297031562356298</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>96354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79610</v>
+        <v>76714</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116759</v>
+        <v>116025</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.176532158933939</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1458564558561603</v>
+        <v>0.1405505474985499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2139169679459681</v>
+        <v>0.2125724929688314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -5613,19 +5613,19 @@
         <v>86407</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>70503</v>
+        <v>69795</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>105144</v>
+        <v>106349</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1573496935404389</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1283878266003868</v>
+        <v>0.1270991772084953</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1914707468210682</v>
+        <v>0.1936647055015157</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>171</v>
@@ -5634,19 +5634,19 @@
         <v>182761</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>157124</v>
+        <v>157678</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>210157</v>
+        <v>209378</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1669117917781766</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1434979874180211</v>
+        <v>0.1440043814180107</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.19193171947209</v>
+        <v>0.1912202881712506</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>215852</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>192063</v>
+        <v>191082</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>238537</v>
+        <v>238916</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.395467357648993</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3518830107722647</v>
+        <v>0.3500853899058078</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4370290386552094</v>
+        <v>0.4377236217333031</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>219</v>
@@ -5684,19 +5684,19 @@
         <v>223660</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>199337</v>
+        <v>201046</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>245313</v>
+        <v>248877</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4072905338870937</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3629993455192848</v>
+        <v>0.3661097523113535</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4467226889579193</v>
+        <v>0.4532117347470128</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>416</v>
@@ -5705,19 +5705,19 @@
         <v>439512</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>404382</v>
+        <v>405837</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>471229</v>
+        <v>472702</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4013969028885928</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.369314024901542</v>
+        <v>0.3706423823050606</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4303637249839955</v>
+        <v>0.4317092657154561</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>175199</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>154345</v>
+        <v>152071</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>196769</v>
+        <v>198534</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3209872954776775</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2827791443122999</v>
+        <v>0.2786136103564376</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3605051867584609</v>
+        <v>0.3637383937079518</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>140</v>
@@ -5755,19 +5755,19 @@
         <v>148665</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>126428</v>
+        <v>127524</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>168981</v>
+        <v>169850</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2707238832462777</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2302292941431855</v>
+        <v>0.2322258292345846</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3077190934646146</v>
+        <v>0.3093021047381355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>305</v>
@@ -5776,19 +5776,19 @@
         <v>323865</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>294831</v>
+        <v>293791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>358434</v>
+        <v>353233</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2957792489493436</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2692635085527632</v>
+        <v>0.2683133045632227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3273501201061846</v>
+        <v>0.3226007458032555</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>53025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38870</v>
+        <v>39769</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69038</v>
+        <v>70393</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09714939159534697</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07121501763614647</v>
+        <v>0.0728616740490713</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1264854324839512</v>
+        <v>0.128968894900377</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -5826,19 +5826,19 @@
         <v>80754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65055</v>
+        <v>65580</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>98606</v>
+        <v>99949</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1470555329029689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1184662370439175</v>
+        <v>0.1194238731753376</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1795637880542496</v>
+        <v>0.1820101640478945</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>120</v>
@@ -5847,19 +5847,19 @@
         <v>133780</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>113183</v>
+        <v>112294</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>157789</v>
+        <v>158303</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.122178260036281</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1033677642944005</v>
+        <v>0.1025555937456382</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1441050536162137</v>
+        <v>0.1445747586122701</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>34330</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22934</v>
+        <v>24458</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47022</v>
+        <v>48654</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01018603996886857</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006804721441931866</v>
+        <v>0.007256951383369729</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01395201765298263</v>
+        <v>0.01443627446669371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -5972,19 +5972,19 @@
         <v>45855</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32599</v>
+        <v>32565</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61637</v>
+        <v>60932</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01300106962209271</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00924275929680303</v>
+        <v>0.009232838548418196</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01747571421706936</v>
+        <v>0.01727575486477211</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>75</v>
@@ -5993,19 +5993,19 @@
         <v>80185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62481</v>
+        <v>62437</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101424</v>
+        <v>99806</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01162554818140142</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009058818445991953</v>
+        <v>0.009052344414303819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01470492055338365</v>
+        <v>0.0144703912882911</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>476661</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>431166</v>
+        <v>433553</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>517775</v>
+        <v>520889</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1414317104697864</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1279329217083635</v>
+        <v>0.128641230106174</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1536310093826734</v>
+        <v>0.1545549200716709</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>380</v>
@@ -6043,19 +6043,19 @@
         <v>392288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>357559</v>
+        <v>358792</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>431295</v>
+        <v>430528</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.111223417058111</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1013768798081985</v>
+        <v>0.1017264199196963</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1222828350901491</v>
+        <v>0.122065197009317</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>822</v>
@@ -6064,19 +6064,19 @@
         <v>868949</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>814303</v>
+        <v>813316</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>925948</v>
+        <v>929266</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1259842403506337</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1180614409109329</v>
+        <v>0.1179182300607257</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1342481554009267</v>
+        <v>0.1347293172499078</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>1205999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1154293</v>
+        <v>1150493</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1265994</v>
+        <v>1264220</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3578364183068707</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3424943712382582</v>
+        <v>0.3413669744222881</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.375637622805721</v>
+        <v>0.3751111734156181</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1123</v>
@@ -6114,19 +6114,19 @@
         <v>1162553</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1106418</v>
+        <v>1113750</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1218799</v>
+        <v>1223815</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3296124721738769</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3136967132782739</v>
+        <v>0.3157754594341769</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3455594278797169</v>
+        <v>0.3469816758662264</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2255</v>
@@ -6135,19 +6135,19 @@
         <v>2368553</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2287765</v>
+        <v>2290386</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2446694</v>
+        <v>2450188</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3434036743384382</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3316907392246032</v>
+        <v>0.3320706820086859</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3547329582017392</v>
+        <v>0.3552395215287907</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>1029635</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>971478</v>
+        <v>977856</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1083897</v>
+        <v>1080422</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3055067611108743</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2882508666717006</v>
+        <v>0.2901431145047634</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.32160705314903</v>
+        <v>0.3205759966697263</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1037</v>
@@ -6185,19 +6185,19 @@
         <v>1101484</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1042858</v>
+        <v>1044688</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1157736</v>
+        <v>1160365</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3122979020989081</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2956759667394311</v>
+        <v>0.2961948642688944</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3282467283598958</v>
+        <v>0.3289920437963745</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2039</v>
@@ -6206,19 +6206,19 @@
         <v>2131119</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2062972</v>
+        <v>2059002</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2215870</v>
+        <v>2214191</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3089795143067586</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2990992211646115</v>
+        <v>0.298523657497747</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3212671037177827</v>
+        <v>0.3210236242008476</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>623628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>580368</v>
+        <v>576120</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>674187</v>
+        <v>670888</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1850390701435999</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1722030711528973</v>
+        <v>0.1709426083237794</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2000403373375796</v>
+        <v>0.1990614818814093</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>739</v>
@@ -6256,19 +6256,19 @@
         <v>824850</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>774379</v>
+        <v>772579</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>880125</v>
+        <v>874814</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2338651390470113</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2195554358852543</v>
+        <v>0.2190450635631889</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2495369522382733</v>
+        <v>0.2480312331732578</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1339</v>
@@ -6277,19 +6277,19 @@
         <v>1448478</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1375973</v>
+        <v>1383820</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1523699</v>
+        <v>1523930</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2100070228227681</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1994948383981441</v>
+        <v>0.2006326373002308</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2209128332440073</v>
+        <v>0.2209464282300558</v>
       </c>
     </row>
     <row r="27">
